--- a/resources/statistics/db_seeder_cmd_improvement_company_3.0.3_win10.xlsx
+++ b/resources/statistics/db_seeder_cmd_improvement_company_3.0.3_win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\db_seeder\resources\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780A501C-9DF7-4F34-AE98-16D75604A00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E402CDE7-22BB-4C0E-B8EC-BE86A0F6C9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db_seeder_cmd_improvement_compa" sheetId="1" r:id="rId1"/>
@@ -128,6 +128,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -639,18 +642,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1009,19 +1014,19 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,497 +1039,497 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>2864</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>2976</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
         <v>3797</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="9">
         <v>10.1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
         <v>3804</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="9">
         <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
         <v>3815</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="9">
         <v>-73.7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
         <v>3987</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="9">
         <v>3.4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
         <v>4195</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="9">
         <v>-4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>4426</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
         <v>5300</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="9">
         <v>-3.2</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
         <v>5342</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
         <v>5630</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
         <v>6456</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="9">
         <v>-5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
         <v>6614</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="9">
         <v>-200.4</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
         <v>7636</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="9">
         <v>-147.4</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
         <v>7648</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4">
         <v>8844</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="9">
         <v>7.1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
         <v>9286</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="9">
         <v>-2.4</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4">
         <v>12808</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="9">
         <v>-26.7</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4">
         <v>13055</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="9">
         <v>3.4</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4">
         <v>15405</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="9">
         <v>-3.2</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>16202</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="9">
         <v>-12.3</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4">
         <v>17952</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="9">
         <v>-3.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4">
         <v>19946</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="9">
         <v>-0.6</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="B25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4">
         <v>23578</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="9">
         <v>-3.1</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4">
         <v>37538</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="B27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4">
         <v>76446</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="9">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>510823</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>1035999</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>1049892</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>1877924</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E31">
